--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Giesbrecht/Wilhelm_Giesbrecht.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Giesbrecht/Wilhelm_Giesbrecht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Giesbrecht est un carcinologiste prussien, né en 1854 à Dantzig et mort le 13 avril 1913.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il fait ses études à Kiel et passe son doctorat sur les copépodes sous la conduite de Karl August Möbius (1825-1908). Il travaille toute sa vie dans la station zoologique de Naples où il devient le plus grand spécialiste de son époque des copépodes. Il étudie notamment les collections rassemblées par l’expédition autour du monde du Vettor Pisani en 1882-1885.
 Un certain nombre d'espèces ont été nommées en son honneur:
@@ -555,7 +569,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) BEMON</t>
         </is>
